--- a/Assets/Documents/兵种设计/兵种设计表.xlsx
+++ b/Assets/Documents/兵种设计/兵种设计表.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ToyEmpires\Assets\Documents\兵种设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ToyEmpires\ToyEmpires\ToyEmpires\Assets\Documents\兵种设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5EFC3-AD02-423E-B72D-27F9184DBB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343212A-C424-47EE-BB1B-3B5A517FC574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{463530DF-801E-41DB-8FF9-F37CE3852791}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463530DF-801E-41DB-8FF9-F37CE3852791}"/>
   </bookViews>
   <sheets>
     <sheet name="近战单位" sheetId="1" r:id="rId1"/>
     <sheet name="远程单位" sheetId="2" r:id="rId2"/>
-    <sheet name="工人" sheetId="3" r:id="rId3"/>
+    <sheet name="支援单位" sheetId="4" r:id="rId3"/>
+    <sheet name="工人" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,8 +26,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>UID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +125,122 @@
   </si>
   <si>
     <t>单次射击量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长矛手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装长枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装盾牌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷矛兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装弓骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臼炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野战炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧侣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,8 +287,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,15 +608,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7AF1D4-BD02-4404-B1F2-47FFA3E66634}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,25 +669,133 @@
       </c>
       <c r="P1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C473C4D-F611-46B3-9A03-8B04C46514AE}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,6 +843,102 @@
       </c>
       <c r="P1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -616,16 +948,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C6BAA2-4156-4F2E-BD40-5695313F5B3C}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79552C00-9D06-478C-8D5B-80FC3EAE9B2A}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,6 +968,98 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C6BAA2-4156-4F2E-BD40-5695313F5B3C}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -665,6 +1089,47 @@
       <c r="M1" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2.5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0.05</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Documents/兵种设计/兵种设计表.xlsx
+++ b/Assets/Documents/兵种设计/兵种设计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ToyEmpires\ToyEmpires\ToyEmpires\Assets\Documents\兵种设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343212A-C424-47EE-BB1B-3B5A517FC574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A831D-8010-4CA0-8121-56888E29062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463530DF-801E-41DB-8FF9-F37CE3852791}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{463530DF-801E-41DB-8FF9-F37CE3852791}"/>
   </bookViews>
   <sheets>
     <sheet name="近战单位" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>UID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,18 +160,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重装长枪兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重装盾牌手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掷矛兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骑手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,14 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弓手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长弓兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弩手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +225,14 @@
   </si>
   <si>
     <t>冲车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具装骑兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7AF1D4-BD02-4404-B1F2-47FFA3E66634}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -716,7 +708,7 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -724,7 +716,7 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -740,7 +732,7 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -748,7 +740,7 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -756,7 +748,7 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -764,7 +756,7 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -772,7 +764,7 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -784,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C473C4D-F611-46B3-9A03-8B04C46514AE}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,7 +842,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -858,7 +850,7 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -866,7 +858,7 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -874,7 +866,7 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -882,7 +874,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -890,7 +882,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -898,7 +890,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -906,7 +898,7 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -914,7 +906,7 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -922,28 +914,13 @@
         <v>2009</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2011</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1012,7 +989,7 @@
         <v>3000</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1020,7 +997,7 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Documents/兵种设计/兵种设计表.xlsx
+++ b/Assets/Documents/兵种设计/兵种设计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ToyEmpires\ToyEmpires\ToyEmpires\Assets\Documents\兵种设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A831D-8010-4CA0-8121-56888E29062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08EEB3E-A79F-417B-BA62-E3EAAC88602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{463530DF-801E-41DB-8FF9-F37CE3852791}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{463530DF-801E-41DB-8FF9-F37CE3852791}"/>
   </bookViews>
   <sheets>
     <sheet name="近战单位" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>UID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火枪手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投石机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +229,14 @@
   </si>
   <si>
     <t>具装骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火门枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火绳枪手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +752,7 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -764,7 +768,7 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C473C4D-F611-46B3-9A03-8B04C46514AE}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -842,7 +846,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -874,7 +878,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -882,7 +886,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -890,7 +894,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -898,7 +902,7 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -906,7 +910,7 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -914,7 +918,15 @@
         <v>2009</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +1001,7 @@
         <v>3000</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -997,7 +1009,7 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
